--- a/manuscript/tables/Table_1.xlsx
+++ b/manuscript/tables/Table_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Table 1: Sample sizes for GWAS meta-analyses. Fixed-effects analyses are listed separately for each population cluster (AFR, AMR, EAS, EUR, MID, and SAS) and totals are given for the multi-ancestry analysis (MR-MEGA). Neff/2 = half effective sample size. ATC = Anatomical Therapeutic Chemical classification subgroups (N06A: antidepressants; N06AA: non-selective monoamine reuptake inhibitors; N06AB: selective serotonin reuptake inhibitors).</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neff/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWAS Loci</t>
   </si>
   <si>
     <t xml:space="preserve">N06A</t>
@@ -572,330 +575,381 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="n">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="G17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
